--- a/Code/Results/Cases/Case_6_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01453325033605</v>
+        <v>1.038815293882783</v>
       </c>
       <c r="D2">
-        <v>1.030324230843225</v>
+        <v>1.051399920781182</v>
       </c>
       <c r="E2">
-        <v>1.023522329058868</v>
+        <v>1.04506894979187</v>
       </c>
       <c r="F2">
-        <v>1.027007664192591</v>
+        <v>1.049624304880558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051835461082054</v>
+        <v>1.065716075874204</v>
       </c>
       <c r="J2">
-        <v>1.036287796459623</v>
+        <v>1.059893940122187</v>
       </c>
       <c r="K2">
-        <v>1.041376667548583</v>
+        <v>1.062186771466139</v>
       </c>
       <c r="L2">
-        <v>1.034663405576933</v>
+        <v>1.055934177621872</v>
       </c>
       <c r="M2">
-        <v>1.038103137454237</v>
+        <v>1.060433018870733</v>
       </c>
       <c r="N2">
-        <v>1.037759443994467</v>
+        <v>1.061399111088695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023580220746411</v>
+        <v>1.046162971541583</v>
       </c>
       <c r="D3">
-        <v>1.037395095799103</v>
+        <v>1.057274592222417</v>
       </c>
       <c r="E3">
-        <v>1.031733918903403</v>
+        <v>1.051777918225371</v>
       </c>
       <c r="F3">
-        <v>1.036009752466514</v>
+        <v>1.057034375287498</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055236550137325</v>
+        <v>1.068978512151349</v>
       </c>
       <c r="J3">
-        <v>1.043448073250408</v>
+        <v>1.065469679176563</v>
       </c>
       <c r="K3">
-        <v>1.047570853411178</v>
+        <v>1.067223554493238</v>
       </c>
       <c r="L3">
-        <v>1.041976241868152</v>
+        <v>1.061788532561204</v>
       </c>
       <c r="M3">
-        <v>1.04620171605769</v>
+        <v>1.066986015403373</v>
       </c>
       <c r="N3">
-        <v>1.04492988919959</v>
+        <v>1.066982768332074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029222786108229</v>
+        <v>1.050772844752185</v>
       </c>
       <c r="D4">
-        <v>1.041806991495972</v>
+        <v>1.060962092644988</v>
       </c>
       <c r="E4">
-        <v>1.036857270084834</v>
+        <v>1.055987802713809</v>
       </c>
       <c r="F4">
-        <v>1.041630386725686</v>
+        <v>1.061688149734072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057341873966854</v>
+        <v>1.071012563534858</v>
       </c>
       <c r="J4">
-        <v>1.047907399924325</v>
+        <v>1.068961280053049</v>
       </c>
       <c r="K4">
-        <v>1.051425726605903</v>
+        <v>1.070376486883041</v>
       </c>
       <c r="L4">
-        <v>1.046530315438223</v>
+        <v>1.065454389582115</v>
       </c>
       <c r="M4">
-        <v>1.051251048710227</v>
+        <v>1.071094975788318</v>
       </c>
       <c r="N4">
-        <v>1.049395548628876</v>
+        <v>1.070479327682297</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031547738304072</v>
+        <v>1.052678154533946</v>
       </c>
       <c r="D5">
-        <v>1.043625162042683</v>
+        <v>1.062486525221405</v>
       </c>
       <c r="E5">
-        <v>1.038968643399064</v>
+        <v>1.057727921038202</v>
       </c>
       <c r="F5">
-        <v>1.043947697772786</v>
+        <v>1.06361271302228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058205458745431</v>
+        <v>1.071850152576205</v>
       </c>
       <c r="J5">
-        <v>1.049743184748161</v>
+        <v>1.070402778269287</v>
       </c>
       <c r="K5">
-        <v>1.053011973141715</v>
+        <v>1.071677872262735</v>
       </c>
       <c r="L5">
-        <v>1.048405048393866</v>
+        <v>1.066967780793453</v>
       </c>
       <c r="M5">
-        <v>1.053331093774596</v>
+        <v>1.072792656206659</v>
       </c>
       <c r="N5">
-        <v>1.05123394047773</v>
+        <v>1.071922872991344</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031935434366033</v>
+        <v>1.052996201067851</v>
       </c>
       <c r="D6">
-        <v>1.043928364010676</v>
+        <v>1.062741011670021</v>
       </c>
       <c r="E6">
-        <v>1.039320743149538</v>
+        <v>1.058018398974556</v>
       </c>
       <c r="F6">
-        <v>1.044334200122277</v>
+        <v>1.06393403778465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058349234624566</v>
+        <v>1.071989784463698</v>
       </c>
       <c r="J6">
-        <v>1.050049212425578</v>
+        <v>1.070643306113754</v>
       </c>
       <c r="K6">
-        <v>1.053276360296732</v>
+        <v>1.071895003204293</v>
       </c>
       <c r="L6">
-        <v>1.048717565648082</v>
+        <v>1.067220301953124</v>
       </c>
       <c r="M6">
-        <v>1.053677921073281</v>
+        <v>1.073076007811986</v>
       </c>
       <c r="N6">
-        <v>1.05154040274955</v>
+        <v>1.072163742412939</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029254033356861</v>
+        <v>1.050798429578855</v>
       </c>
       <c r="D7">
-        <v>1.04183142660036</v>
+        <v>1.060982561703298</v>
       </c>
       <c r="E7">
-        <v>1.036885645524225</v>
+        <v>1.056011168874205</v>
       </c>
       <c r="F7">
-        <v>1.041661525821471</v>
+        <v>1.061713988752435</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057353496005939</v>
+        <v>1.071023823173158</v>
       </c>
       <c r="J7">
-        <v>1.047932079320131</v>
+        <v>1.068980643194408</v>
       </c>
       <c r="K7">
-        <v>1.051447054152294</v>
+        <v>1.070393969122424</v>
       </c>
       <c r="L7">
-        <v>1.046555518648885</v>
+        <v>1.06547471862271</v>
       </c>
       <c r="M7">
-        <v>1.051279006365525</v>
+        <v>1.071117774940547</v>
       </c>
       <c r="N7">
-        <v>1.049420263072255</v>
+        <v>1.070498718321537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017636681949364</v>
+        <v>1.041329623401534</v>
       </c>
       <c r="D8">
-        <v>1.03274931434113</v>
+        <v>1.053409771497086</v>
       </c>
       <c r="E8">
-        <v>1.026338761491887</v>
+        <v>1.047364531885468</v>
       </c>
       <c r="F8">
-        <v>1.030094375746459</v>
+        <v>1.052158959357935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053005487859862</v>
+        <v>1.066835133051498</v>
       </c>
       <c r="J8">
-        <v>1.038745364426577</v>
+        <v>1.061803285366358</v>
       </c>
       <c r="K8">
-        <v>1.043503221347926</v>
+        <v>1.063911795355115</v>
       </c>
       <c r="L8">
-        <v>1.037173395995426</v>
+        <v>1.057938979714131</v>
       </c>
       <c r="M8">
-        <v>1.040881564107153</v>
+        <v>1.062675883692035</v>
       </c>
       <c r="N8">
-        <v>1.040220501989822</v>
+        <v>1.063311167822117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9953692699953233</v>
+        <v>1.023440930025868</v>
       </c>
       <c r="D9">
-        <v>1.01536361003346</v>
+        <v>1.039121569054801</v>
       </c>
       <c r="E9">
-        <v>1.006142307879328</v>
+        <v>1.03103754764856</v>
       </c>
       <c r="F9">
-        <v>1.007976435023147</v>
+        <v>1.034147807784908</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044543751920528</v>
+        <v>1.058819851845657</v>
       </c>
       <c r="J9">
-        <v>1.021086617731877</v>
+        <v>1.048192242784685</v>
       </c>
       <c r="K9">
-        <v>1.028212245928221</v>
+        <v>1.051610284054784</v>
       </c>
       <c r="L9">
-        <v>1.019136510328709</v>
+        <v>1.043646361776768</v>
       </c>
       <c r="M9">
-        <v>1.020941412272</v>
+        <v>1.04671013217869</v>
       </c>
       <c r="N9">
-        <v>1.022536677849329</v>
+        <v>1.04968079599877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9790255007660561</v>
+        <v>1.01055388396128</v>
       </c>
       <c r="D10">
-        <v>1.002630280128075</v>
+        <v>1.02884728847647</v>
       </c>
       <c r="E10">
-        <v>0.9913388510738945</v>
+        <v>1.019285314174476</v>
       </c>
       <c r="F10">
-        <v>0.9917844859928171</v>
+        <v>1.021202971731184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038250933158224</v>
+        <v>1.052979119547212</v>
       </c>
       <c r="J10">
-        <v>1.008096736274757</v>
+        <v>1.038354938840061</v>
       </c>
       <c r="K10">
-        <v>1.016952205898455</v>
+        <v>1.042714523700723</v>
       </c>
       <c r="L10">
-        <v>1.005866266137127</v>
+        <v>1.033314883056073</v>
       </c>
       <c r="M10">
-        <v>1.006303675494835</v>
+        <v>1.035199669680693</v>
       </c>
       <c r="N10">
-        <v>1.009528349270579</v>
+        <v>1.03982952195419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9715114454794457</v>
+        <v>1.004705518046999</v>
       </c>
       <c r="D11">
-        <v>0.9967859225928063</v>
+        <v>1.024190778435606</v>
       </c>
       <c r="E11">
-        <v>0.9845397702548641</v>
+        <v>1.013955309138793</v>
       </c>
       <c r="F11">
-        <v>0.9843518034298506</v>
+        <v>1.015336356692822</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035339761909725</v>
+        <v>1.050313453493682</v>
       </c>
       <c r="J11">
-        <v>1.002119357381279</v>
+        <v>1.033883843763205</v>
       </c>
       <c r="K11">
-        <v>1.011768707315759</v>
+        <v>1.038670470138704</v>
       </c>
       <c r="L11">
-        <v>0.9997592544330993</v>
+        <v>1.028618761648641</v>
       </c>
       <c r="M11">
-        <v>0.9995749809692702</v>
+        <v>1.029974733560958</v>
       </c>
       <c r="N11">
-        <v>1.003542481813457</v>
+        <v>1.035352077409483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.968646175191479</v>
+        <v>1.002488896943256</v>
       </c>
       <c r="D12">
-        <v>0.9945591482136465</v>
+        <v>1.022426968283786</v>
       </c>
       <c r="E12">
-        <v>0.9819483646022813</v>
+        <v>1.011935762394797</v>
       </c>
       <c r="F12">
-        <v>0.9815194608558762</v>
+        <v>1.013114090324445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034227109844067</v>
+        <v>1.049300938694764</v>
       </c>
       <c r="J12">
-        <v>0.9998394237457164</v>
+        <v>1.032188294426925</v>
       </c>
       <c r="K12">
-        <v>1.009791334020287</v>
+        <v>1.037136756965887</v>
       </c>
       <c r="L12">
-        <v>0.9974297742826689</v>
+        <v>1.026837809745478</v>
       </c>
       <c r="M12">
-        <v>0.9970094950923406</v>
+        <v>1.027994285182316</v>
       </c>
       <c r="N12">
-        <v>1.00125931041062</v>
+        <v>1.033654120198663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9692642988281753</v>
+        <v>1.002966443369682</v>
       </c>
       <c r="D13">
-        <v>0.9950394421488955</v>
+        <v>1.022806910213957</v>
       </c>
       <c r="E13">
-        <v>0.9825073484224102</v>
+        <v>1.012370822144361</v>
       </c>
       <c r="F13">
-        <v>0.9821303925743776</v>
+        <v>1.013592794324195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034467254563044</v>
+        <v>1.049519171151849</v>
       </c>
       <c r="J13">
-        <v>1.000331298492274</v>
+        <v>1.032553622537285</v>
       </c>
       <c r="K13">
-        <v>1.010217944038286</v>
+        <v>1.037467219828863</v>
       </c>
       <c r="L13">
-        <v>0.9979323429036199</v>
+        <v>1.027221542025968</v>
       </c>
       <c r="M13">
-        <v>0.9975629295747265</v>
+        <v>1.028420954750779</v>
       </c>
       <c r="N13">
-        <v>1.001751883675737</v>
+        <v>1.034019967116844</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9712761705391353</v>
+        <v>1.004523219711259</v>
       </c>
       <c r="D14">
-        <v>0.9966030376548496</v>
+        <v>1.024045697132968</v>
       </c>
       <c r="E14">
-        <v>0.9843269568896476</v>
+        <v>1.013789205554427</v>
       </c>
       <c r="F14">
-        <v>0.9841191928570627</v>
+        <v>1.015153567860473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035248449929707</v>
+        <v>1.050230226574672</v>
       </c>
       <c r="J14">
-        <v>1.00193215772354</v>
+        <v>1.033744417635237</v>
       </c>
       <c r="K14">
-        <v>1.011606354684539</v>
+        <v>1.038544353945533</v>
       </c>
       <c r="L14">
-        <v>0.9995679887195779</v>
+        <v>1.028472314189949</v>
       </c>
       <c r="M14">
-        <v>0.9993643148575795</v>
+        <v>1.029811860326229</v>
       </c>
       <c r="N14">
-        <v>1.003355016310733</v>
+        <v>1.035212453280421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9725056336937323</v>
+        <v>1.005476405250404</v>
       </c>
       <c r="D15">
-        <v>0.9975588044988953</v>
+        <v>1.024804330325825</v>
       </c>
       <c r="E15">
-        <v>0.9854390949666635</v>
+        <v>1.014657738717349</v>
       </c>
       <c r="F15">
-        <v>0.9853348109092593</v>
+        <v>1.016109370164625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035725511095862</v>
+        <v>1.050665307845355</v>
       </c>
       <c r="J15">
-        <v>1.002910372015666</v>
+        <v>1.034473399250073</v>
       </c>
       <c r="K15">
-        <v>1.012454720950193</v>
+        <v>1.039203741073708</v>
       </c>
       <c r="L15">
-        <v>1.000567446103107</v>
+        <v>1.029238003691853</v>
       </c>
       <c r="M15">
-        <v>1.000465194572875</v>
+        <v>1.030663473338052</v>
       </c>
       <c r="N15">
-        <v>1.004334619779355</v>
+        <v>1.035942470132766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9795142807713301</v>
+        <v>1.010936042334802</v>
       </c>
       <c r="D16">
-        <v>1.003010676311016</v>
+        <v>1.029151705298387</v>
       </c>
       <c r="E16">
-        <v>0.9917812793256361</v>
+        <v>1.019633678340996</v>
       </c>
       <c r="F16">
-        <v>0.9922682234150833</v>
+        <v>1.021586493387038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038439942420927</v>
+        <v>1.053153001182736</v>
       </c>
       <c r="J16">
-        <v>1.008485461828369</v>
+        <v>1.038646967023246</v>
       </c>
       <c r="K16">
-        <v>1.017289265404453</v>
+        <v>1.042978643440237</v>
       </c>
       <c r="L16">
-        <v>1.006263408640693</v>
+        <v>1.033621599732704</v>
       </c>
       <c r="M16">
-        <v>1.006741402073319</v>
+        <v>1.035541069957438</v>
       </c>
       <c r="N16">
-        <v>1.009917626859065</v>
+        <v>1.040121964850892</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9837880409219172</v>
+        <v>1.014286278161779</v>
       </c>
       <c r="D17">
-        <v>1.006337887560036</v>
+        <v>1.031821119275171</v>
       </c>
       <c r="E17">
-        <v>0.9956505352843612</v>
+        <v>1.022688043161323</v>
       </c>
       <c r="F17">
-        <v>0.9964992032433704</v>
+        <v>1.024949587108299</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040090585426402</v>
+        <v>1.054675668286611</v>
       </c>
       <c r="J17">
-        <v>1.011883799234725</v>
+        <v>1.041206313571714</v>
       </c>
       <c r="K17">
-        <v>1.020235695787843</v>
+        <v>1.045293301496984</v>
       </c>
       <c r="L17">
-        <v>1.009735258592555</v>
+        <v>1.036309628822934</v>
       </c>
       <c r="M17">
-        <v>1.010568893804246</v>
+        <v>1.038533858273651</v>
       </c>
       <c r="N17">
-        <v>1.013320790294332</v>
+        <v>1.042684945965019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9862393327796887</v>
+        <v>1.016214833723186</v>
       </c>
       <c r="D18">
-        <v>1.008247157146883</v>
+        <v>1.033358325954016</v>
       </c>
       <c r="E18">
-        <v>0.9978704358145603</v>
+        <v>1.024446589475048</v>
       </c>
       <c r="F18">
-        <v>0.9989270230100707</v>
+        <v>1.026886287322867</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041035651727743</v>
+        <v>1.055550772318486</v>
       </c>
       <c r="J18">
-        <v>1.01383247430291</v>
+        <v>1.042678956333351</v>
       </c>
       <c r="K18">
-        <v>1.021925036353462</v>
+        <v>1.046625065446248</v>
       </c>
       <c r="L18">
-        <v>1.011726029836679</v>
+        <v>1.037856275936492</v>
       </c>
       <c r="M18">
-        <v>1.012764303172876</v>
+        <v>1.040256523785652</v>
       </c>
       <c r="N18">
-        <v>1.01527223270463</v>
+        <v>1.044159680048292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9870683519796034</v>
+        <v>1.016868194851992</v>
       </c>
       <c r="D19">
-        <v>1.008893007807407</v>
+        <v>1.033879196304714</v>
       </c>
       <c r="E19">
-        <v>0.9986212987846691</v>
+        <v>1.025042403889971</v>
       </c>
       <c r="F19">
-        <v>0.9997482804844052</v>
+        <v>1.027542531749225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041354979507997</v>
+        <v>1.055847000167742</v>
       </c>
       <c r="J19">
-        <v>1.014491420563778</v>
+        <v>1.043177751493721</v>
       </c>
       <c r="K19">
-        <v>1.022496252239877</v>
+        <v>1.047076128661439</v>
       </c>
       <c r="L19">
-        <v>1.012399201453969</v>
+        <v>1.038380130371022</v>
       </c>
       <c r="M19">
-        <v>1.01350679358215</v>
+        <v>1.040840109424501</v>
       </c>
       <c r="N19">
-        <v>1.015932114744771</v>
+        <v>1.044659183555003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833338582846048</v>
+        <v>1.013929502535493</v>
       </c>
       <c r="D20">
-        <v>1.00598420232581</v>
+        <v>1.031536786445016</v>
       </c>
       <c r="E20">
-        <v>0.9952392744643956</v>
+        <v>1.0223627429104</v>
       </c>
       <c r="F20">
-        <v>0.9960494550331077</v>
+        <v>1.024591364477752</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0399153425842</v>
+        <v>1.054513662062863</v>
       </c>
       <c r="J20">
-        <v>1.011522701099756</v>
+        <v>1.04093382779085</v>
       </c>
       <c r="K20">
-        <v>1.019922636625712</v>
+        <v>1.045046875671424</v>
       </c>
       <c r="L20">
-        <v>1.009366355244636</v>
+        <v>1.036023446721736</v>
       </c>
       <c r="M20">
-        <v>1.010162127536278</v>
+        <v>1.038215160804763</v>
       </c>
       <c r="N20">
-        <v>1.012959179358593</v>
+        <v>1.042412073223092</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706858499559377</v>
+        <v>1.004066044926393</v>
       </c>
       <c r="D21">
-        <v>0.9961441972759776</v>
+        <v>1.023681874567676</v>
       </c>
       <c r="E21">
-        <v>0.983793014397039</v>
+        <v>1.013372654727052</v>
       </c>
       <c r="F21">
-        <v>0.9835355884098629</v>
+        <v>1.014695183690251</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035019301526621</v>
+        <v>1.050021472027575</v>
       </c>
       <c r="J21">
-        <v>1.001462451715975</v>
+        <v>1.033394744679807</v>
       </c>
       <c r="K21">
-        <v>1.011198989090604</v>
+        <v>1.038228059912945</v>
       </c>
       <c r="L21">
-        <v>0.999088078852625</v>
+        <v>1.028105031039436</v>
       </c>
       <c r="M21">
-        <v>0.9988357450261981</v>
+        <v>1.029403398958145</v>
       </c>
       <c r="N21">
-        <v>1.002884643266761</v>
+        <v>1.034862283749286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9622986479653095</v>
+        <v>0.9976059238134174</v>
       </c>
       <c r="D22">
-        <v>0.9896298614096236</v>
+        <v>1.018543670312581</v>
       </c>
       <c r="E22">
-        <v>0.9762100774642649</v>
+        <v>1.007488169208209</v>
       </c>
       <c r="F22">
-        <v>0.975248597739604</v>
+        <v>1.008221117589476</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031757665853724</v>
+        <v>1.04706653293879</v>
       </c>
       <c r="J22">
-        <v>0.9947876494558953</v>
+        <v>1.028451556009773</v>
       </c>
       <c r="K22">
-        <v>1.00540959048918</v>
+        <v>1.033756511928294</v>
       </c>
       <c r="L22">
-        <v>0.9922680222849208</v>
+        <v>1.022912729375232</v>
       </c>
       <c r="M22">
-        <v>0.9913268649068444</v>
+        <v>1.023631453047152</v>
       </c>
       <c r="N22">
-        <v>0.9962003620218609</v>
+        <v>1.029912075184349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966789388140043</v>
+        <v>1.001056546669371</v>
       </c>
       <c r="D23">
-        <v>0.9931166822670545</v>
+        <v>1.021287543722494</v>
       </c>
       <c r="E23">
-        <v>0.9802694263961992</v>
+        <v>1.010630944116585</v>
       </c>
       <c r="F23">
-        <v>0.9796845699543683</v>
+        <v>1.011678460551377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033505374655611</v>
+        <v>1.048646059051038</v>
       </c>
       <c r="J23">
-        <v>0.9983617983974272</v>
+        <v>1.031092400785436</v>
       </c>
       <c r="K23">
-        <v>1.008509738223552</v>
+        <v>1.036145436635928</v>
       </c>
       <c r="L23">
-        <v>0.9959200084508886</v>
+        <v>1.025686698080217</v>
       </c>
       <c r="M23">
-        <v>0.9953470875391082</v>
+        <v>1.026714524037881</v>
       </c>
       <c r="N23">
-        <v>0.9997795866648502</v>
+        <v>1.032556670262502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835392115526647</v>
+        <v>1.014090792839501</v>
       </c>
       <c r="D24">
-        <v>1.006144114150858</v>
+        <v>1.031665325233362</v>
       </c>
       <c r="E24">
-        <v>0.9954252192311037</v>
+        <v>1.022509802948844</v>
       </c>
       <c r="F24">
-        <v>0.99625280002355</v>
+        <v>1.024753306636513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039994581816369</v>
+        <v>1.05458690586847</v>
       </c>
       <c r="J24">
-        <v>1.011685968893899</v>
+        <v>1.04105701452763</v>
       </c>
       <c r="K24">
-        <v>1.020064184594679</v>
+        <v>1.045158281360868</v>
       </c>
       <c r="L24">
-        <v>1.009533152284845</v>
+        <v>1.036152825481532</v>
       </c>
       <c r="M24">
-        <v>1.010346041811277</v>
+        <v>1.038359237220786</v>
       </c>
       <c r="N24">
-        <v>1.013122679011731</v>
+        <v>1.042535434899168</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001366044636679</v>
+        <v>1.028222771368669</v>
       </c>
       <c r="D25">
-        <v>1.020042034206311</v>
+        <v>1.042938223352909</v>
       </c>
       <c r="E25">
-        <v>1.01157850728717</v>
+        <v>1.035400577664735</v>
       </c>
       <c r="F25">
-        <v>1.013926312331911</v>
+        <v>1.038957436275574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046836784344813</v>
+        <v>1.060973941926264</v>
       </c>
       <c r="J25">
-        <v>1.02584752322505</v>
+        <v>1.051836277370979</v>
       </c>
       <c r="K25">
-        <v>1.032336990913399</v>
+        <v>1.054904637396274</v>
       </c>
       <c r="L25">
-        <v>1.023999702001224</v>
+        <v>1.047473121765446</v>
       </c>
       <c r="M25">
-        <v>1.026312219500204</v>
+        <v>1.050979657348955</v>
       </c>
       <c r="N25">
-        <v>1.027304344374385</v>
+        <v>1.053330005532153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038815293882783</v>
+        <v>1.021217397078918</v>
       </c>
       <c r="D2">
-        <v>1.051399920781182</v>
+        <v>1.036029370023163</v>
       </c>
       <c r="E2">
-        <v>1.04506894979187</v>
+        <v>1.031401488372146</v>
       </c>
       <c r="F2">
-        <v>1.049624304880558</v>
+        <v>1.034749176335398</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065716075874204</v>
+        <v>1.055492615284811</v>
       </c>
       <c r="J2">
-        <v>1.059893940122187</v>
+        <v>1.042781503766334</v>
       </c>
       <c r="K2">
-        <v>1.062186771466139</v>
+        <v>1.047008580939543</v>
       </c>
       <c r="L2">
-        <v>1.055934177621872</v>
+        <v>1.04244002081825</v>
       </c>
       <c r="M2">
-        <v>1.060433018870733</v>
+        <v>1.045744730799798</v>
       </c>
       <c r="N2">
-        <v>1.061399111088695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017729356600653</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044309407247853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +480,93 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046162971541583</v>
+        <v>1.025683855866012</v>
       </c>
       <c r="D3">
-        <v>1.057274592222417</v>
+        <v>1.039073336645558</v>
       </c>
       <c r="E3">
-        <v>1.051777918225371</v>
+        <v>1.035289789383688</v>
       </c>
       <c r="F3">
-        <v>1.057034375287498</v>
+        <v>1.039281608357849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068978512151349</v>
+        <v>1.056940503755334</v>
       </c>
       <c r="J3">
-        <v>1.065469679176563</v>
+        <v>1.045498025501171</v>
       </c>
       <c r="K3">
-        <v>1.067223554493238</v>
+        <v>1.049229533483112</v>
       </c>
       <c r="L3">
-        <v>1.061788532561204</v>
+        <v>1.045490196419685</v>
       </c>
       <c r="M3">
-        <v>1.066986015403373</v>
+        <v>1.049435383127458</v>
       </c>
       <c r="N3">
-        <v>1.066982768332074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018666380705023</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045877147926457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.050772844752185</v>
+        <v>1.028517161446711</v>
       </c>
       <c r="D4">
-        <v>1.060962092644988</v>
+        <v>1.041007840936585</v>
       </c>
       <c r="E4">
-        <v>1.055987802713809</v>
+        <v>1.037762051352197</v>
       </c>
       <c r="F4">
-        <v>1.061688149734072</v>
+        <v>1.042164100534434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071012563534858</v>
+        <v>1.057849206446125</v>
       </c>
       <c r="J4">
-        <v>1.068961280053049</v>
+        <v>1.047218493436033</v>
       </c>
       <c r="K4">
-        <v>1.070376486883041</v>
+        <v>1.050635301708254</v>
       </c>
       <c r="L4">
-        <v>1.065454389582115</v>
+        <v>1.047425121551968</v>
       </c>
       <c r="M4">
-        <v>1.071094975788318</v>
+        <v>1.051778941798129</v>
       </c>
       <c r="N4">
-        <v>1.070479327682297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019259810441554</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046872019080795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052678154533946</v>
+        <v>1.029699652052326</v>
       </c>
       <c r="D5">
-        <v>1.062486525221405</v>
+        <v>1.041818225084244</v>
       </c>
       <c r="E5">
-        <v>1.057727921038202</v>
+        <v>1.038795660610683</v>
       </c>
       <c r="F5">
-        <v>1.06361271302228</v>
+        <v>1.043368770873711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071850152576205</v>
+        <v>1.058227745766534</v>
       </c>
       <c r="J5">
-        <v>1.070402778269287</v>
+        <v>1.047937505444713</v>
       </c>
       <c r="K5">
-        <v>1.071677872262735</v>
+        <v>1.051224216394999</v>
       </c>
       <c r="L5">
-        <v>1.066967780793453</v>
+        <v>1.048233918437228</v>
       </c>
       <c r="M5">
-        <v>1.072792656206659</v>
+        <v>1.052758298556138</v>
       </c>
       <c r="N5">
-        <v>1.071922872991344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019508713819816</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047295525354619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052996201067851</v>
+        <v>1.029902902292515</v>
       </c>
       <c r="D6">
-        <v>1.062741011670021</v>
+        <v>1.04196023151049</v>
       </c>
       <c r="E6">
-        <v>1.058018398974556</v>
+        <v>1.038973957256192</v>
       </c>
       <c r="F6">
-        <v>1.06393403778465</v>
+        <v>1.043575820626273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071989784463698</v>
+        <v>1.058294701596446</v>
       </c>
       <c r="J6">
-        <v>1.070643306113754</v>
+        <v>1.048063067139012</v>
       </c>
       <c r="K6">
-        <v>1.071895003204293</v>
+        <v>1.051329019141525</v>
       </c>
       <c r="L6">
-        <v>1.067220301953124</v>
+        <v>1.048374476042474</v>
       </c>
       <c r="M6">
-        <v>1.073076007811986</v>
+        <v>1.052927534128483</v>
       </c>
       <c r="N6">
-        <v>1.072163742412939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019553284302957</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047378287259115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050798429578855</v>
+        <v>1.028547728154465</v>
       </c>
       <c r="D7">
-        <v>1.060982561703298</v>
+        <v>1.041035925067298</v>
       </c>
       <c r="E7">
-        <v>1.056011168874205</v>
+        <v>1.03779028954057</v>
       </c>
       <c r="F7">
-        <v>1.061713988752435</v>
+        <v>1.042194942377078</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071023823173158</v>
+        <v>1.057864447725422</v>
       </c>
       <c r="J7">
-        <v>1.068980643194408</v>
+        <v>1.047242500991753</v>
       </c>
       <c r="K7">
-        <v>1.070393969122424</v>
+        <v>1.05066023501354</v>
       </c>
       <c r="L7">
-        <v>1.06547471862271</v>
+        <v>1.047450193012545</v>
       </c>
       <c r="M7">
-        <v>1.071117774940547</v>
+        <v>1.051806607800386</v>
       </c>
       <c r="N7">
-        <v>1.070498718321537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019271133761666</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046909569328373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041329623401534</v>
+        <v>1.022757422454806</v>
       </c>
       <c r="D8">
-        <v>1.053409771497086</v>
+        <v>1.037086988951648</v>
       </c>
       <c r="E8">
-        <v>1.047364531885468</v>
+        <v>1.032743014240153</v>
       </c>
       <c r="F8">
-        <v>1.052158959357935</v>
+        <v>1.036310178752376</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066835133051498</v>
+        <v>1.05600053269995</v>
       </c>
       <c r="J8">
-        <v>1.061803285366358</v>
+        <v>1.043725463428874</v>
       </c>
       <c r="K8">
-        <v>1.063911795355115</v>
+        <v>1.047786976917498</v>
       </c>
       <c r="L8">
-        <v>1.057938979714131</v>
+        <v>1.043496999970291</v>
       </c>
       <c r="M8">
-        <v>1.062675883692035</v>
+        <v>1.047019781466118</v>
       </c>
       <c r="N8">
-        <v>1.063311167822117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018058927907214</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044882510823654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023440930025868</v>
+        <v>1.012072649986514</v>
       </c>
       <c r="D9">
-        <v>1.039121569054801</v>
+        <v>1.02981915527759</v>
       </c>
       <c r="E9">
-        <v>1.03103754764856</v>
+        <v>1.023473703445028</v>
       </c>
       <c r="F9">
-        <v>1.034147807784908</v>
+        <v>1.025510724944228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058819851845657</v>
+        <v>1.052476342098864</v>
       </c>
       <c r="J9">
-        <v>1.048192242784685</v>
+        <v>1.037206178162914</v>
       </c>
       <c r="K9">
-        <v>1.051610284054784</v>
+        <v>1.042446278437671</v>
       </c>
       <c r="L9">
-        <v>1.043646361776768</v>
+        <v>1.036197079766814</v>
       </c>
       <c r="M9">
-        <v>1.04671013217869</v>
+        <v>1.03820303652935</v>
       </c>
       <c r="N9">
-        <v>1.04968079599877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015806849173723</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041103171722166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01055388396128</v>
+        <v>1.004612933018627</v>
       </c>
       <c r="D10">
-        <v>1.02884728847647</v>
+        <v>1.024771426965078</v>
       </c>
       <c r="E10">
-        <v>1.019285314174476</v>
+        <v>1.017037263509976</v>
       </c>
       <c r="F10">
-        <v>1.021202971731184</v>
+        <v>1.018012687373526</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052979119547212</v>
+        <v>1.049968535260774</v>
       </c>
       <c r="J10">
-        <v>1.038354938840061</v>
+        <v>1.032644718253162</v>
       </c>
       <c r="K10">
-        <v>1.042714523700723</v>
+        <v>1.038707379989442</v>
       </c>
       <c r="L10">
-        <v>1.033314883056073</v>
+        <v>1.03110557081906</v>
       </c>
       <c r="M10">
-        <v>1.035199669680693</v>
+        <v>1.032064158997588</v>
       </c>
       <c r="N10">
-        <v>1.03982952195419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01423295676208</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038476282355812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004705518046999</v>
+        <v>1.001313154888395</v>
       </c>
       <c r="D11">
-        <v>1.024190778435606</v>
+        <v>1.022553641672358</v>
       </c>
       <c r="E11">
-        <v>1.013955309138793</v>
+        <v>1.014201481867327</v>
       </c>
       <c r="F11">
-        <v>1.015336356692822</v>
+        <v>1.014706449489815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050313453493682</v>
+        <v>1.048854419313788</v>
       </c>
       <c r="J11">
-        <v>1.033883843763205</v>
+        <v>1.030631406935005</v>
       </c>
       <c r="K11">
-        <v>1.038670470138704</v>
+        <v>1.037062404664796</v>
       </c>
       <c r="L11">
-        <v>1.028618761648641</v>
+        <v>1.028860458118375</v>
       </c>
       <c r="M11">
-        <v>1.029974733560958</v>
+        <v>1.029356252551477</v>
       </c>
       <c r="N11">
-        <v>1.035352077409483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013543230611531</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037345942162789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002488896943256</v>
+        <v>1.00006268292952</v>
       </c>
       <c r="D12">
-        <v>1.022426968283786</v>
+        <v>1.02170939157695</v>
       </c>
       <c r="E12">
-        <v>1.011935762394797</v>
+        <v>1.013126778785694</v>
       </c>
       <c r="F12">
-        <v>1.013114090324445</v>
+        <v>1.013454986722319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049300938694764</v>
+        <v>1.048427083979889</v>
       </c>
       <c r="J12">
-        <v>1.032188294426925</v>
+        <v>1.029864390138307</v>
       </c>
       <c r="K12">
-        <v>1.037136756965887</v>
+        <v>1.036432166752624</v>
       </c>
       <c r="L12">
-        <v>1.026837809745478</v>
+        <v>1.028006738692408</v>
       </c>
       <c r="M12">
-        <v>1.027994285182316</v>
+        <v>1.028328871895742</v>
       </c>
       <c r="N12">
-        <v>1.033654120198663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013277958227153</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036900346034247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002966443369682</v>
+        <v>1.000329447757669</v>
       </c>
       <c r="D13">
-        <v>1.022806910213957</v>
+        <v>1.021888508225726</v>
       </c>
       <c r="E13">
-        <v>1.012370822144361</v>
+        <v>1.013355696564432</v>
       </c>
       <c r="F13">
-        <v>1.013592794324195</v>
+        <v>1.013721860762511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049519171151849</v>
+        <v>1.04851764229776</v>
       </c>
       <c r="J13">
-        <v>1.032553622537285</v>
+        <v>1.030027301244791</v>
       </c>
       <c r="K13">
-        <v>1.037467219828863</v>
+        <v>1.036565371537092</v>
       </c>
       <c r="L13">
-        <v>1.027221542025968</v>
+        <v>1.028188228630171</v>
       </c>
       <c r="M13">
-        <v>1.028420954750779</v>
+        <v>1.02854764256564</v>
       </c>
       <c r="N13">
-        <v>1.034019967116844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013333793486716</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036992039567302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004523219711259</v>
+        <v>1.001209180876241</v>
       </c>
       <c r="D14">
-        <v>1.024045697132968</v>
+        <v>1.022483020505615</v>
       </c>
       <c r="E14">
-        <v>1.013789205554427</v>
+        <v>1.014111972363589</v>
       </c>
       <c r="F14">
-        <v>1.015153567860473</v>
+        <v>1.014602348224902</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050230226574672</v>
+        <v>1.048818630229131</v>
       </c>
       <c r="J14">
-        <v>1.033744417635237</v>
+        <v>1.030567325181432</v>
       </c>
       <c r="K14">
-        <v>1.038544353945533</v>
+        <v>1.037009470167292</v>
       </c>
       <c r="L14">
-        <v>1.028472314189949</v>
+        <v>1.02878920239804</v>
       </c>
       <c r="M14">
-        <v>1.029811860326229</v>
+        <v>1.029270656282372</v>
       </c>
       <c r="N14">
-        <v>1.035212453280421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013520852229951</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037307451127969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005476405250404</v>
+        <v>1.001753501939627</v>
       </c>
       <c r="D15">
-        <v>1.024804330325825</v>
+        <v>1.022852875141717</v>
       </c>
       <c r="E15">
-        <v>1.014657738717349</v>
+        <v>1.01458065327744</v>
       </c>
       <c r="F15">
-        <v>1.016109370164625</v>
+        <v>1.015147402082188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050665307845355</v>
+        <v>1.049005996187397</v>
       </c>
       <c r="J15">
-        <v>1.034473399250073</v>
+        <v>1.03090286615311</v>
       </c>
       <c r="K15">
-        <v>1.039203741073708</v>
+        <v>1.037286707449115</v>
       </c>
       <c r="L15">
-        <v>1.029238003691853</v>
+        <v>1.02916231023353</v>
       </c>
       <c r="M15">
-        <v>1.030663473338052</v>
+        <v>1.029718831304441</v>
       </c>
       <c r="N15">
-        <v>1.035942470132766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013638079224101</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037509320191086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010936042334802</v>
+        <v>1.004865961174219</v>
       </c>
       <c r="D16">
-        <v>1.029151705298387</v>
+        <v>1.024957945510176</v>
       </c>
       <c r="E16">
-        <v>1.019633678340996</v>
+        <v>1.017259706515073</v>
       </c>
       <c r="F16">
-        <v>1.021586493387038</v>
+        <v>1.01826682940893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053153001182736</v>
+        <v>1.05006553725706</v>
       </c>
       <c r="J16">
-        <v>1.038646967023246</v>
+        <v>1.032811669072385</v>
       </c>
       <c r="K16">
-        <v>1.042978643440237</v>
+        <v>1.038855339483999</v>
       </c>
       <c r="L16">
-        <v>1.033621599732704</v>
+        <v>1.031288387026116</v>
       </c>
       <c r="M16">
-        <v>1.035541069957438</v>
+        <v>1.032278188454987</v>
       </c>
       <c r="N16">
-        <v>1.040121964850892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014298704240671</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038621543065969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014286278161779</v>
+        <v>1.006793667544927</v>
       </c>
       <c r="D17">
-        <v>1.031821119275171</v>
+        <v>1.026263430379786</v>
       </c>
       <c r="E17">
-        <v>1.022688043161323</v>
+        <v>1.018921296146387</v>
       </c>
       <c r="F17">
-        <v>1.024949587108299</v>
+        <v>1.020201576525069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054675668286611</v>
+        <v>1.050718821426583</v>
       </c>
       <c r="J17">
-        <v>1.041206313571714</v>
+        <v>1.033993255427018</v>
       </c>
       <c r="K17">
-        <v>1.045293301496984</v>
+        <v>1.039826120807924</v>
       </c>
       <c r="L17">
-        <v>1.036309628822934</v>
+        <v>1.032605505278535</v>
       </c>
       <c r="M17">
-        <v>1.038533858273651</v>
+        <v>1.033864433734487</v>
       </c>
       <c r="N17">
-        <v>1.042684945965019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014707659441506</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03931048849664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016214833723186</v>
+        <v>1.007898433397374</v>
       </c>
       <c r="D18">
-        <v>1.033358325954016</v>
+        <v>1.027007201952564</v>
       </c>
       <c r="E18">
-        <v>1.024446589475048</v>
+        <v>1.019872939078901</v>
       </c>
       <c r="F18">
-        <v>1.026886287322867</v>
+        <v>1.021311257480715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055550772318486</v>
+        <v>1.051088518069361</v>
       </c>
       <c r="J18">
-        <v>1.042678956333351</v>
+        <v>1.034666332845235</v>
       </c>
       <c r="K18">
-        <v>1.046625065446248</v>
+        <v>1.040375489477143</v>
       </c>
       <c r="L18">
-        <v>1.037856275936492</v>
+        <v>1.033357235554507</v>
       </c>
       <c r="M18">
-        <v>1.040256523785652</v>
+        <v>1.034771998069076</v>
       </c>
       <c r="N18">
-        <v>1.044159680048292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014938066823115</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039687317764789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016868194851992</v>
+        <v>1.008282184171275</v>
       </c>
       <c r="D19">
-        <v>1.033879196304714</v>
+        <v>1.027269541306004</v>
       </c>
       <c r="E19">
-        <v>1.025042403889971</v>
+        <v>1.020204745957269</v>
       </c>
       <c r="F19">
-        <v>1.027542531749225</v>
+        <v>1.021696942657171</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055847000167742</v>
+        <v>1.05121958517963</v>
       </c>
       <c r="J19">
-        <v>1.043177751493721</v>
+        <v>1.034903090528515</v>
       </c>
       <c r="K19">
-        <v>1.047076128661439</v>
+        <v>1.040571490665626</v>
       </c>
       <c r="L19">
-        <v>1.038380130371022</v>
+        <v>1.033620876882997</v>
       </c>
       <c r="M19">
-        <v>1.040840109424501</v>
+        <v>1.035088787680566</v>
       </c>
       <c r="N19">
-        <v>1.044659183555003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015021116165239</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03983226000452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013929502535493</v>
+        <v>1.00658688617926</v>
       </c>
       <c r="D20">
-        <v>1.031536786445016</v>
+        <v>1.026122944455476</v>
       </c>
       <c r="E20">
-        <v>1.0223627429104</v>
+        <v>1.018742863745449</v>
       </c>
       <c r="F20">
-        <v>1.024591364477752</v>
+        <v>1.01999393146488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054513662062863</v>
+        <v>1.050648574615224</v>
       </c>
       <c r="J20">
-        <v>1.04093382779085</v>
+        <v>1.033866234662953</v>
       </c>
       <c r="K20">
-        <v>1.045046875671424</v>
+        <v>1.039721496333494</v>
       </c>
       <c r="L20">
-        <v>1.036023446721736</v>
+        <v>1.032463958816015</v>
       </c>
       <c r="M20">
-        <v>1.038215160804763</v>
+        <v>1.033694092232686</v>
       </c>
       <c r="N20">
-        <v>1.042412073223092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014663496341017</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039235186406343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004066044926393</v>
+        <v>1.000962426167508</v>
       </c>
       <c r="D21">
-        <v>1.023681874567676</v>
+        <v>1.022321517825034</v>
       </c>
       <c r="E21">
-        <v>1.013372654727052</v>
+        <v>1.013901417368808</v>
       </c>
       <c r="F21">
-        <v>1.014695183690251</v>
+        <v>1.014355505718865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050021472027575</v>
+        <v>1.048738060037566</v>
       </c>
       <c r="J21">
-        <v>1.033394744679807</v>
+        <v>1.030419963777385</v>
       </c>
       <c r="K21">
-        <v>1.038228059912945</v>
+        <v>1.036891992769479</v>
       </c>
       <c r="L21">
-        <v>1.028105031039436</v>
+        <v>1.028624123965775</v>
       </c>
       <c r="M21">
-        <v>1.029403398958145</v>
+        <v>1.029069918675852</v>
       </c>
       <c r="N21">
-        <v>1.034862283749286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013472636232362</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0372378650339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976059238134174</v>
+        <v>0.9973280232077233</v>
       </c>
       <c r="D22">
-        <v>1.018543670312581</v>
+        <v>1.019864409127693</v>
       </c>
       <c r="E22">
-        <v>1.007488169208209</v>
+        <v>1.010778863763729</v>
       </c>
       <c r="F22">
-        <v>1.008221117589476</v>
+        <v>1.010721075043942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04706653293879</v>
+        <v>1.047489108484229</v>
       </c>
       <c r="J22">
-        <v>1.028451556009773</v>
+        <v>1.028185941549121</v>
       </c>
       <c r="K22">
-        <v>1.033756511928294</v>
+        <v>1.035052358823457</v>
       </c>
       <c r="L22">
-        <v>1.022912729375232</v>
+        <v>1.026139771371558</v>
       </c>
       <c r="M22">
-        <v>1.023631453047152</v>
+        <v>1.026083095787541</v>
       </c>
       <c r="N22">
-        <v>1.029912075184349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01269716786521</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035923714020758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001056546669371</v>
+        <v>0.9992485596001853</v>
       </c>
       <c r="D23">
-        <v>1.021287543722494</v>
+        <v>1.021155928727425</v>
       </c>
       <c r="E23">
-        <v>1.010630944116585</v>
+        <v>1.012426214805417</v>
       </c>
       <c r="F23">
-        <v>1.011678460551377</v>
+        <v>1.01264053018651</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048646059051038</v>
+        <v>1.048145441366961</v>
       </c>
       <c r="J23">
-        <v>1.031092400785436</v>
+        <v>1.029361734406284</v>
       </c>
       <c r="K23">
-        <v>1.036145436635928</v>
+        <v>1.036016232536712</v>
       </c>
       <c r="L23">
-        <v>1.025686698080217</v>
+        <v>1.027448255074166</v>
       </c>
       <c r="M23">
-        <v>1.026714524037881</v>
+        <v>1.027658556217144</v>
       </c>
       <c r="N23">
-        <v>1.032556670262502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013101898311859</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036595599969305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014090792839501</v>
+        <v>1.006657156880608</v>
       </c>
       <c r="D24">
-        <v>1.031665325233362</v>
+        <v>1.026160248331387</v>
       </c>
       <c r="E24">
-        <v>1.022509802948844</v>
+        <v>1.01880049674831</v>
       </c>
       <c r="F24">
-        <v>1.024753306636513</v>
+        <v>1.020064304015297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05458690586847</v>
+        <v>1.050664844910994</v>
       </c>
       <c r="J24">
-        <v>1.04105701452763</v>
+        <v>1.033901331540041</v>
       </c>
       <c r="K24">
-        <v>1.045158281360868</v>
+        <v>1.039743024305259</v>
       </c>
       <c r="L24">
-        <v>1.036152825481532</v>
+        <v>1.032505307206517</v>
       </c>
       <c r="M24">
-        <v>1.038359237220786</v>
+        <v>1.033747997529107</v>
       </c>
       <c r="N24">
-        <v>1.042535434899168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014670331745112</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039223125573391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028222771368669</v>
+        <v>1.01491642821477</v>
       </c>
       <c r="D25">
-        <v>1.042938223352909</v>
+        <v>1.031760663958725</v>
       </c>
       <c r="E25">
-        <v>1.035400577664735</v>
+        <v>1.025937882326416</v>
       </c>
       <c r="F25">
-        <v>1.038957436275574</v>
+        <v>1.028377883677393</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060973941926264</v>
+        <v>1.053431203453959</v>
       </c>
       <c r="J25">
-        <v>1.051836277370979</v>
+        <v>1.038952015647502</v>
       </c>
       <c r="K25">
-        <v>1.054904637396274</v>
+        <v>1.043885160921824</v>
       </c>
       <c r="L25">
-        <v>1.047473121765446</v>
+        <v>1.038146460466953</v>
       </c>
       <c r="M25">
-        <v>1.050979657348955</v>
+        <v>1.040551081231759</v>
       </c>
       <c r="N25">
-        <v>1.053330005532153</v>
+        <v>1.016415236070831</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042148947047563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021217397078918</v>
+        <v>1.019681034127657</v>
       </c>
       <c r="D2">
-        <v>1.036029370023163</v>
+        <v>1.033911405064648</v>
       </c>
       <c r="E2">
-        <v>1.031401488372146</v>
+        <v>1.030075973317657</v>
       </c>
       <c r="F2">
-        <v>1.034749176335398</v>
+        <v>1.033346567988233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055492615284811</v>
+        <v>1.054304096732267</v>
       </c>
       <c r="J2">
-        <v>1.042781503766334</v>
+        <v>1.041288611475717</v>
       </c>
       <c r="K2">
-        <v>1.047008580939543</v>
+        <v>1.044917682291369</v>
       </c>
       <c r="L2">
-        <v>1.04244002081825</v>
+        <v>1.041131619464361</v>
       </c>
       <c r="M2">
-        <v>1.045744730799798</v>
+        <v>1.044360086917998</v>
       </c>
       <c r="N2">
-        <v>1.017729356600653</v>
+        <v>1.017872738703429</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044309407247853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042839692655734</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023885071792916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,93 +495,111 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025683855866012</v>
+        <v>1.023879435201081</v>
       </c>
       <c r="D3">
-        <v>1.039073336645558</v>
+        <v>1.036649237398319</v>
       </c>
       <c r="E3">
-        <v>1.035289789383688</v>
+        <v>1.03371961786508</v>
       </c>
       <c r="F3">
-        <v>1.039281608357849</v>
+        <v>1.037625193124177</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056940503755334</v>
+        <v>1.055567127867907</v>
       </c>
       <c r="J3">
-        <v>1.045498025501171</v>
+        <v>1.043739633825862</v>
       </c>
       <c r="K3">
-        <v>1.049229533483112</v>
+        <v>1.046833713528509</v>
       </c>
       <c r="L3">
-        <v>1.045490196419685</v>
+        <v>1.043938489765016</v>
       </c>
       <c r="M3">
-        <v>1.049435383127458</v>
+        <v>1.047798264202305</v>
       </c>
       <c r="N3">
-        <v>1.018666380705023</v>
+        <v>1.018539314287334</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045877147926457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044191552268051</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024300934121989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028517161446711</v>
+        <v>1.026544688009553</v>
       </c>
       <c r="D4">
-        <v>1.041007840936585</v>
+        <v>1.038390848566987</v>
       </c>
       <c r="E4">
-        <v>1.037762051352197</v>
+        <v>1.03603845232361</v>
       </c>
       <c r="F4">
-        <v>1.042164100534434</v>
+        <v>1.040348677332836</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057849206446125</v>
+        <v>1.056359211612993</v>
       </c>
       <c r="J4">
-        <v>1.047218493436033</v>
+        <v>1.045292916866062</v>
       </c>
       <c r="K4">
-        <v>1.050635301708254</v>
+        <v>1.048046998898188</v>
       </c>
       <c r="L4">
-        <v>1.047425121551968</v>
+        <v>1.045720543550823</v>
       </c>
       <c r="M4">
-        <v>1.051778941798129</v>
+        <v>1.049983347682808</v>
       </c>
       <c r="N4">
-        <v>1.019259810441554</v>
+        <v>1.018961874090041</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046872019080795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045050406408699</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024561903296323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029699652052326</v>
+        <v>1.027657267270549</v>
       </c>
       <c r="D5">
-        <v>1.041818225084244</v>
+        <v>1.039120918673441</v>
       </c>
       <c r="E5">
-        <v>1.038795660610683</v>
+        <v>1.03700817882402</v>
       </c>
       <c r="F5">
-        <v>1.043368770873711</v>
+        <v>1.041487186521484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058227745766534</v>
+        <v>1.056689130775367</v>
       </c>
       <c r="J5">
-        <v>1.047937505444713</v>
+        <v>1.045942223320896</v>
       </c>
       <c r="K5">
-        <v>1.051224216394999</v>
+        <v>1.048555693261613</v>
       </c>
       <c r="L5">
-        <v>1.048233918437228</v>
+        <v>1.046465626861235</v>
       </c>
       <c r="M5">
-        <v>1.052758298556138</v>
+        <v>1.050896700558786</v>
       </c>
       <c r="N5">
-        <v>1.019508713819816</v>
+        <v>1.01913916933214</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047295525354619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045417906953362</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024671408630838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029902902292515</v>
+        <v>1.027848256953772</v>
       </c>
       <c r="D6">
-        <v>1.04196023151049</v>
+        <v>1.039249007862294</v>
       </c>
       <c r="E6">
-        <v>1.038973957256192</v>
+        <v>1.037175210667686</v>
       </c>
       <c r="F6">
-        <v>1.043575820626273</v>
+        <v>1.041682584888598</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058294701596446</v>
+        <v>1.056747623007058</v>
       </c>
       <c r="J6">
-        <v>1.048063067139012</v>
+        <v>1.046055562459267</v>
       </c>
       <c r="K6">
-        <v>1.051329019141525</v>
+        <v>1.048646594718205</v>
       </c>
       <c r="L6">
-        <v>1.048374476042474</v>
+        <v>1.046594950338116</v>
       </c>
       <c r="M6">
-        <v>1.052927534128483</v>
+        <v>1.051054313314034</v>
       </c>
       <c r="N6">
-        <v>1.019553284302957</v>
+        <v>1.019170879720614</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047378287259115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045491714397021</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024691748050963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028547728154465</v>
+        <v>1.026582738560079</v>
       </c>
       <c r="D7">
-        <v>1.041035925067298</v>
+        <v>1.038423896491069</v>
       </c>
       <c r="E7">
-        <v>1.03779028954057</v>
+        <v>1.036073763642024</v>
       </c>
       <c r="F7">
-        <v>1.042194942377078</v>
+        <v>1.04038680768847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057864447725422</v>
+        <v>1.056378222599426</v>
       </c>
       <c r="J7">
-        <v>1.047242500991753</v>
+        <v>1.045324209179127</v>
       </c>
       <c r="K7">
-        <v>1.05066023501354</v>
+        <v>1.048076829989221</v>
       </c>
       <c r="L7">
-        <v>1.047450193012545</v>
+        <v>1.045752602353792</v>
       </c>
       <c r="M7">
-        <v>1.051806607800386</v>
+        <v>1.050018214417773</v>
       </c>
       <c r="N7">
-        <v>1.019271133761666</v>
+        <v>1.018999009531474</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046909569328373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045093431647373</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024571501279536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022757422454806</v>
+        <v>1.021158098931319</v>
       </c>
       <c r="D8">
-        <v>1.037086988951648</v>
+        <v>1.034885526475839</v>
       </c>
       <c r="E8">
-        <v>1.032743014240153</v>
+        <v>1.031361211837275</v>
       </c>
       <c r="F8">
-        <v>1.036310178752376</v>
+        <v>1.034848900183022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05600053269995</v>
+        <v>1.054764141066622</v>
       </c>
       <c r="J8">
-        <v>1.043725463428874</v>
+        <v>1.042169859070359</v>
       </c>
       <c r="K8">
-        <v>1.047786976917498</v>
+        <v>1.045612809142311</v>
       </c>
       <c r="L8">
-        <v>1.043496999970291</v>
+        <v>1.042132492947053</v>
       </c>
       <c r="M8">
-        <v>1.047019781466118</v>
+        <v>1.045576638181752</v>
       </c>
       <c r="N8">
-        <v>1.018058927907214</v>
+        <v>1.018195932748619</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044882510823654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043356197715802</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024042310163837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012072649986514</v>
+        <v>1.011133100464629</v>
       </c>
       <c r="D9">
-        <v>1.02981915527759</v>
+        <v>1.028362328486953</v>
       </c>
       <c r="E9">
-        <v>1.023473703445028</v>
+        <v>1.022694146557738</v>
       </c>
       <c r="F9">
-        <v>1.025510724944228</v>
+        <v>1.024675219807431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052476342098864</v>
+        <v>1.051689198235914</v>
       </c>
       <c r="J9">
-        <v>1.037206178162914</v>
+        <v>1.036298754100704</v>
       </c>
       <c r="K9">
-        <v>1.042446278437671</v>
+        <v>1.041011416217808</v>
       </c>
       <c r="L9">
-        <v>1.036197079766814</v>
+        <v>1.035429452951936</v>
       </c>
       <c r="M9">
-        <v>1.03820303652935</v>
+        <v>1.037380253861356</v>
       </c>
       <c r="N9">
-        <v>1.015806849173723</v>
+        <v>1.016607886545769</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041103171722166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040099317865041</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023028419345354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004612933018627</v>
+        <v>1.004193567261287</v>
       </c>
       <c r="D10">
-        <v>1.024771426965078</v>
+        <v>1.023877134149302</v>
       </c>
       <c r="E10">
-        <v>1.017037263509976</v>
+        <v>1.016734066641011</v>
       </c>
       <c r="F10">
-        <v>1.018012687373526</v>
+        <v>1.017672935945824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049968535260774</v>
+        <v>1.049523652622306</v>
       </c>
       <c r="J10">
-        <v>1.032644718253162</v>
+        <v>1.032241785453135</v>
       </c>
       <c r="K10">
-        <v>1.038707379989442</v>
+        <v>1.037828259167668</v>
       </c>
       <c r="L10">
-        <v>1.03110557081906</v>
+        <v>1.030807615601085</v>
       </c>
       <c r="M10">
-        <v>1.032064158997588</v>
+        <v>1.031730266896679</v>
       </c>
       <c r="N10">
-        <v>1.01423295676208</v>
+        <v>1.015627069494968</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038476282355812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03786706183714</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022320433719341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001313154888395</v>
+        <v>1.001200146125281</v>
       </c>
       <c r="D11">
-        <v>1.022553641672358</v>
+        <v>1.021964705621155</v>
       </c>
       <c r="E11">
-        <v>1.014201481867327</v>
+        <v>1.014182445646003</v>
       </c>
       <c r="F11">
-        <v>1.014706449489815</v>
+        <v>1.014661799592613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048854419313788</v>
+        <v>1.048600573320394</v>
       </c>
       <c r="J11">
-        <v>1.030631406935005</v>
+        <v>1.030523082705324</v>
       </c>
       <c r="K11">
-        <v>1.037062404664796</v>
+        <v>1.036483956156718</v>
       </c>
       <c r="L11">
-        <v>1.028860458118375</v>
+        <v>1.028841767939539</v>
       </c>
       <c r="M11">
-        <v>1.029356252551477</v>
+        <v>1.029312413280974</v>
       </c>
       <c r="N11">
-        <v>1.013543230611531</v>
+        <v>1.015401646835542</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037345942162789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036952537475629</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022029589999538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00006268292952</v>
+        <v>1.00007397168296</v>
       </c>
       <c r="D12">
-        <v>1.02170939157695</v>
+        <v>1.021242146414912</v>
       </c>
       <c r="E12">
-        <v>1.013126778785694</v>
+        <v>1.013223652909342</v>
       </c>
       <c r="F12">
-        <v>1.013454986722319</v>
+        <v>1.013530605926344</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048427083979889</v>
+        <v>1.04824979501684</v>
       </c>
       <c r="J12">
-        <v>1.029864390138307</v>
+        <v>1.029875201224437</v>
       </c>
       <c r="K12">
-        <v>1.036432166752624</v>
+        <v>1.035973390417964</v>
       </c>
       <c r="L12">
-        <v>1.028006738692408</v>
+        <v>1.028101819259055</v>
       </c>
       <c r="M12">
-        <v>1.028328871895742</v>
+        <v>1.028403092206461</v>
       </c>
       <c r="N12">
-        <v>1.013277958227153</v>
+        <v>1.015331891490178</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036900346034247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036591560168672</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021918066748075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000329447757669</v>
+        <v>1.000314020393409</v>
       </c>
       <c r="D13">
-        <v>1.021888508225726</v>
+        <v>1.021395131926026</v>
       </c>
       <c r="E13">
-        <v>1.013355696564432</v>
+        <v>1.013427675240499</v>
       </c>
       <c r="F13">
-        <v>1.013721860762511</v>
+        <v>1.013771642076976</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04851764229776</v>
+        <v>1.048323913405746</v>
       </c>
       <c r="J13">
-        <v>1.030027301244791</v>
+        <v>1.030012523810091</v>
       </c>
       <c r="K13">
-        <v>1.036565371537092</v>
+        <v>1.03608090405841</v>
       </c>
       <c r="L13">
-        <v>1.028188228630171</v>
+        <v>1.028258879872319</v>
       </c>
       <c r="M13">
-        <v>1.02854764256564</v>
+        <v>1.028596506648753</v>
       </c>
       <c r="N13">
-        <v>1.013333793486716</v>
+        <v>1.015345351825763</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036992039567302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036664845319598</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021941219898947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001209180876241</v>
+        <v>1.001106409710802</v>
       </c>
       <c r="D14">
-        <v>1.022483020505615</v>
+        <v>1.021904120633767</v>
       </c>
       <c r="E14">
-        <v>1.014111972363589</v>
+        <v>1.014102489691011</v>
       </c>
       <c r="F14">
-        <v>1.014602348224902</v>
+        <v>1.014567608620908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048818630229131</v>
+        <v>1.048571097318732</v>
       </c>
       <c r="J14">
-        <v>1.030567325181432</v>
+        <v>1.030468821456991</v>
       </c>
       <c r="K14">
-        <v>1.037009470167292</v>
+        <v>1.036440894283109</v>
       </c>
       <c r="L14">
-        <v>1.02878920239804</v>
+        <v>1.028779892365391</v>
       </c>
       <c r="M14">
-        <v>1.029270656282372</v>
+        <v>1.029236548366966</v>
       </c>
       <c r="N14">
-        <v>1.013520852229951</v>
+        <v>1.015395211911016</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037307451127969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036920923326624</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022020041509639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001753501939627</v>
+        <v>1.001597426812117</v>
       </c>
       <c r="D15">
-        <v>1.022852875141717</v>
+        <v>1.02222165415125</v>
       </c>
       <c r="E15">
-        <v>1.01458065327744</v>
+        <v>1.014521443126066</v>
       </c>
       <c r="F15">
-        <v>1.015147402082188</v>
+        <v>1.015061076397523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049005996187397</v>
+        <v>1.048725563117594</v>
       </c>
       <c r="J15">
-        <v>1.03090286615311</v>
+        <v>1.030753213995237</v>
       </c>
       <c r="K15">
-        <v>1.037286707449115</v>
+        <v>1.036666657005596</v>
       </c>
       <c r="L15">
-        <v>1.02916231023353</v>
+        <v>1.029104169465036</v>
       </c>
       <c r="M15">
-        <v>1.029718831304441</v>
+        <v>1.029634062522798</v>
       </c>
       <c r="N15">
-        <v>1.013638079224101</v>
+        <v>1.015429705462447</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037509320191086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0370869666915</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022070154796388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004865961174219</v>
+        <v>1.004422483910273</v>
       </c>
       <c r="D16">
-        <v>1.024957945510176</v>
+        <v>1.024040186813309</v>
       </c>
       <c r="E16">
-        <v>1.017259706515073</v>
+        <v>1.016933634433098</v>
       </c>
       <c r="F16">
-        <v>1.01826682940893</v>
+        <v>1.017903451574147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05006553725706</v>
+        <v>1.049605813870299</v>
       </c>
       <c r="J16">
-        <v>1.032811669072385</v>
+        <v>1.032385502261359</v>
       </c>
       <c r="K16">
-        <v>1.038855339483999</v>
+        <v>1.03795309859627</v>
       </c>
       <c r="L16">
-        <v>1.031288387026116</v>
+        <v>1.030967932551914</v>
       </c>
       <c r="M16">
-        <v>1.032278188454987</v>
+        <v>1.031921055230835</v>
       </c>
       <c r="N16">
-        <v>1.014298704240671</v>
+        <v>1.01565845699092</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038621543065969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037999965949134</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022352929931467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006793667544927</v>
+        <v>1.006187829664159</v>
       </c>
       <c r="D17">
-        <v>1.026263430379786</v>
+        <v>1.025179766539965</v>
       </c>
       <c r="E17">
-        <v>1.018921296146387</v>
+        <v>1.018445166735994</v>
       </c>
       <c r="F17">
-        <v>1.020201576525069</v>
+        <v>1.019682313423807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050718821426583</v>
+        <v>1.05015610233902</v>
       </c>
       <c r="J17">
-        <v>1.033993255427018</v>
+        <v>1.033410278048346</v>
       </c>
       <c r="K17">
-        <v>1.039826120807924</v>
+        <v>1.038760251716943</v>
       </c>
       <c r="L17">
-        <v>1.032605505278535</v>
+        <v>1.032137334181692</v>
       </c>
       <c r="M17">
-        <v>1.033864433734487</v>
+        <v>1.033353822336392</v>
       </c>
       <c r="N17">
-        <v>1.014707659441506</v>
+        <v>1.015839663125436</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03931048849664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038573465085724</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022531335415564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007898433397374</v>
+        <v>1.007206265697744</v>
       </c>
       <c r="D18">
-        <v>1.027007201952564</v>
+        <v>1.025833284003155</v>
       </c>
       <c r="E18">
-        <v>1.019872939078901</v>
+        <v>1.01931744124291</v>
       </c>
       <c r="F18">
-        <v>1.021311257480715</v>
+        <v>1.020709466218663</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051088518069361</v>
+        <v>1.050470200160941</v>
       </c>
       <c r="J18">
-        <v>1.034666332845235</v>
+        <v>1.033999766376766</v>
       </c>
       <c r="K18">
-        <v>1.040375489477143</v>
+        <v>1.03922051802052</v>
       </c>
       <c r="L18">
-        <v>1.033357235554507</v>
+        <v>1.032810858203397</v>
       </c>
       <c r="M18">
-        <v>1.034771998069076</v>
+        <v>1.034180052187464</v>
       </c>
       <c r="N18">
-        <v>1.014938066823115</v>
+        <v>1.015956071637699</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039687317764789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038886154858003</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02263181652083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008282184171275</v>
+        <v>1.007560581976031</v>
       </c>
       <c r="D19">
-        <v>1.027269541306004</v>
+        <v>1.026064777769616</v>
       </c>
       <c r="E19">
-        <v>1.020204745957269</v>
+        <v>1.019622101626069</v>
       </c>
       <c r="F19">
-        <v>1.021696942657171</v>
+        <v>1.021066948769352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05121958517963</v>
+        <v>1.050582272569511</v>
       </c>
       <c r="J19">
-        <v>1.034903090528515</v>
+        <v>1.034207995206833</v>
       </c>
       <c r="K19">
-        <v>1.040571490665626</v>
+        <v>1.03938605592264</v>
       </c>
       <c r="L19">
-        <v>1.033620876882997</v>
+        <v>1.033047740043759</v>
       </c>
       <c r="M19">
-        <v>1.035088787680566</v>
+        <v>1.034469035990228</v>
       </c>
       <c r="N19">
-        <v>1.015021116165239</v>
+        <v>1.016001611518136</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03983226000452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039010181593178</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022669287097544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00658688617926</v>
+        <v>1.005997887047932</v>
       </c>
       <c r="D20">
-        <v>1.026122944455476</v>
+        <v>1.025056641550659</v>
       </c>
       <c r="E20">
-        <v>1.018742863745449</v>
+        <v>1.018282283239232</v>
       </c>
       <c r="F20">
-        <v>1.01999393146488</v>
+        <v>1.019490821892568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050648574615224</v>
+        <v>1.050096602740865</v>
       </c>
       <c r="J20">
-        <v>1.033866234662953</v>
+        <v>1.033299542193992</v>
       </c>
       <c r="K20">
-        <v>1.039721496333494</v>
+        <v>1.038672758628684</v>
       </c>
       <c r="L20">
-        <v>1.032463958816015</v>
+        <v>1.032011101973049</v>
       </c>
       <c r="M20">
-        <v>1.033694092232686</v>
+        <v>1.033199393308214</v>
       </c>
       <c r="N20">
-        <v>1.014663496341017</v>
+        <v>1.015818379451242</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039235186406343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038510146104699</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022511833956851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000962426167508</v>
+        <v>1.000908703186856</v>
       </c>
       <c r="D21">
-        <v>1.022321517825034</v>
+        <v>1.02178504552555</v>
       </c>
       <c r="E21">
-        <v>1.013901417368808</v>
+        <v>1.013938553580346</v>
       </c>
       <c r="F21">
-        <v>1.014355505718865</v>
+        <v>1.014368865547603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048738060037566</v>
+        <v>1.048518694733966</v>
       </c>
       <c r="J21">
-        <v>1.030419963777385</v>
+        <v>1.030368480963042</v>
       </c>
       <c r="K21">
-        <v>1.036891992769479</v>
+        <v>1.036365122449068</v>
       </c>
       <c r="L21">
-        <v>1.028624123965775</v>
+        <v>1.028660581544499</v>
       </c>
       <c r="M21">
-        <v>1.029069918675852</v>
+        <v>1.029083034642036</v>
       </c>
       <c r="N21">
-        <v>1.013472636232362</v>
+        <v>1.015455012696674</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0372378650339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03688213810273</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022008070859489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9973280232077233</v>
+        <v>0.9976224337556461</v>
       </c>
       <c r="D22">
-        <v>1.019864409127693</v>
+        <v>1.019671760975545</v>
       </c>
       <c r="E22">
-        <v>1.010778863763729</v>
+        <v>1.011140647819387</v>
       </c>
       <c r="F22">
-        <v>1.010721075043942</v>
+        <v>1.011071437042752</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047489108484229</v>
+        <v>1.047484983436271</v>
       </c>
       <c r="J22">
-        <v>1.028185941549121</v>
+        <v>1.028467336346143</v>
       </c>
       <c r="K22">
-        <v>1.035052358823457</v>
+        <v>1.034863336257279</v>
       </c>
       <c r="L22">
-        <v>1.026139771371558</v>
+        <v>1.026494590470492</v>
       </c>
       <c r="M22">
-        <v>1.026083095787541</v>
+        <v>1.026426711613761</v>
       </c>
       <c r="N22">
-        <v>1.01269716786521</v>
+        <v>1.015205755243593</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035923714020758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035805564300187</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021676237288472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9992485596001853</v>
+        <v>0.9993431066500004</v>
       </c>
       <c r="D23">
-        <v>1.021155928727425</v>
+        <v>1.020769566026327</v>
       </c>
       <c r="E23">
-        <v>1.012426214805417</v>
+        <v>1.012601031065281</v>
       </c>
       <c r="F23">
-        <v>1.01264053018651</v>
+        <v>1.01279696359115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048145441366961</v>
+        <v>1.04801915892729</v>
       </c>
       <c r="J23">
-        <v>1.029361734406284</v>
+        <v>1.029452228150409</v>
       </c>
       <c r="K23">
-        <v>1.036016232536712</v>
+        <v>1.035636951823786</v>
       </c>
       <c r="L23">
-        <v>1.027448255074166</v>
+        <v>1.027619796768168</v>
       </c>
       <c r="M23">
-        <v>1.027658556217144</v>
+        <v>1.027812060943298</v>
       </c>
       <c r="N23">
-        <v>1.013101898311859</v>
+        <v>1.015288005654844</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036595599969305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036341984268958</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021843369081308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006657156880608</v>
+        <v>1.006063782101287</v>
       </c>
       <c r="D24">
-        <v>1.026160248331387</v>
+        <v>1.025088775083561</v>
       </c>
       <c r="E24">
-        <v>1.01880049674831</v>
+        <v>1.018336232983875</v>
       </c>
       <c r="F24">
-        <v>1.020064304015297</v>
+        <v>1.019557282218397</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050664844910994</v>
+        <v>1.050109830679419</v>
       </c>
       <c r="J24">
-        <v>1.033901331540041</v>
+        <v>1.033330393352039</v>
       </c>
       <c r="K24">
-        <v>1.039743024305259</v>
+        <v>1.038689177303734</v>
       </c>
       <c r="L24">
-        <v>1.032505307206517</v>
+        <v>1.032048817789011</v>
       </c>
       <c r="M24">
-        <v>1.033747997529107</v>
+        <v>1.033249439452262</v>
       </c>
       <c r="N24">
-        <v>1.014670331745112</v>
+        <v>1.01581914950249</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039223125573391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038491793620222</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022512138064312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01491642821477</v>
+        <v>1.013785131203979</v>
       </c>
       <c r="D25">
-        <v>1.031760663958725</v>
+        <v>1.030094220046465</v>
       </c>
       <c r="E25">
-        <v>1.025937882326416</v>
+        <v>1.024982444052926</v>
       </c>
       <c r="F25">
-        <v>1.028377883677393</v>
+        <v>1.027359650453435</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053431203453959</v>
+        <v>1.052516506388146</v>
       </c>
       <c r="J25">
-        <v>1.038952015647502</v>
+        <v>1.037857312954834</v>
       </c>
       <c r="K25">
-        <v>1.043885160921824</v>
+        <v>1.042242657529242</v>
       </c>
       <c r="L25">
-        <v>1.038146460466953</v>
+        <v>1.037204934486306</v>
       </c>
       <c r="M25">
-        <v>1.040551081231759</v>
+        <v>1.039547586723801</v>
       </c>
       <c r="N25">
-        <v>1.016415236070831</v>
+        <v>1.017001500815303</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042148947047563</v>
+        <v>1.041001091107498</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02330408272261</v>
       </c>
     </row>
   </sheetData>
